--- a/data/trans_dic/P04D$colectiva-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P04D$colectiva-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,2; 6,09</t>
+          <t>2,36; 6,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,31; 6,4</t>
+          <t>2,4; 6,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,41; 14,81</t>
+          <t>5,52; 15,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,76; 5,21</t>
+          <t>1,83; 5,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,76; 3,66</t>
+          <t>0,97; 3,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,75; 12,14</t>
+          <t>4,83; 12,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,6; 5,2</t>
+          <t>2,52; 5,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,93; 4,41</t>
+          <t>2,01; 4,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,03; 12,16</t>
+          <t>5,89; 12,01</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,82; 5,95</t>
+          <t>2,91; 5,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,83; 4,79</t>
+          <t>1,87; 4,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,71; 7,34</t>
+          <t>2,57; 7,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,06; 5,01</t>
+          <t>1,95; 4,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 4,16</t>
+          <t>1,69; 4,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,0; 9,05</t>
+          <t>3,76; 9,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,84; 4,85</t>
+          <t>2,67; 4,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,02</t>
+          <t>2,08; 4,17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,0; 7,52</t>
+          <t>3,87; 7,56</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,74; 4,41</t>
+          <t>1,77; 4,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,7; 4,35</t>
+          <t>1,72; 4,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,91; 9,46</t>
+          <t>4,87; 9,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,94; 4,69</t>
+          <t>1,91; 4,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,39; 3,66</t>
+          <t>1,37; 3,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,8; 9,03</t>
+          <t>4,99; 8,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,05; 3,85</t>
+          <t>2,09; 3,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,89; 3,55</t>
+          <t>1,89; 3,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,46; 8,49</t>
+          <t>5,51; 8,46</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,31; 5,26</t>
+          <t>2,38; 5,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,81; 4,68</t>
+          <t>1,78; 4,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,89; 6,95</t>
+          <t>1,88; 6,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,92</t>
+          <t>1,86; 5,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,2; 5,36</t>
+          <t>2,23; 5,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,23; 8,28</t>
+          <t>5,05; 8,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,48; 4,56</t>
+          <t>2,47; 4,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,39; 4,39</t>
+          <t>2,33; 4,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,17; 7,03</t>
+          <t>3,3; 6,83</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,01</t>
+          <t>0,97; 3,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,11; 4,52</t>
+          <t>1,16; 4,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,59; 6,88</t>
+          <t>3,41; 6,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,36; 4,78</t>
+          <t>1,34; 4,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,71</t>
+          <t>0,94; 3,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,8; 7,87</t>
+          <t>4,85; 7,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,56; 3,75</t>
+          <t>1,48; 3,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,45; 3,48</t>
+          <t>1,38; 3,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,36; 6,77</t>
+          <t>4,46; 6,69</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,24</t>
+          <t>0,32; 3,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,2</t>
+          <t>0,53; 3,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,83; 10,16</t>
+          <t>5,67; 10,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,55; 3,12</t>
+          <t>0,54; 3,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,37; 5,14</t>
+          <t>1,34; 4,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,49; 6,23</t>
+          <t>1,35; 6,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,63</t>
+          <t>0,64; 2,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3,34</t>
+          <t>1,26; 3,36</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,87; 7,2</t>
+          <t>2,53; 7,17</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,9; 5,98</t>
+          <t>0,91; 6,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,63; 4,08</t>
+          <t>0,63; 4,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,84; 8,1</t>
+          <t>4,04; 8,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,47</t>
+          <t>0,26; 2,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,53</t>
+          <t>0,31; 3,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,82; 4,09</t>
+          <t>1,82; 3,97</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,85; 3,34</t>
+          <t>0,84; 3,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,81; 3,38</t>
+          <t>0,78; 3,17</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,0; 5,13</t>
+          <t>3,06; 5,28</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,52; 3,79</t>
+          <t>2,55; 3,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,3; 3,42</t>
+          <t>2,27; 3,41</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,66; 6,83</t>
+          <t>4,55; 6,9</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,13; 3,29</t>
+          <t>2,14; 3,33</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,01; 3,06</t>
+          <t>2,0; 3,02</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,7; 6,62</t>
+          <t>4,77; 6,68</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,54; 3,41</t>
+          <t>2,5; 3,33</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,27; 3,07</t>
+          <t>2,27; 3,04</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,05; 6,52</t>
+          <t>5,02; 6,51</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, tiene calefacción colectiva en su vivienda</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>17950</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>16633</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>36327</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>13664</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>7817</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>24689</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>31614</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>24449</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>61017</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>10669; 27620</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>10077; 25973</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>22075; 62218</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7858; 22133</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3822; 15399</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>15132; 38520</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>22168; 44256</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>16388; 38119</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>42002; 85652</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>28994</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>18337</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>19021</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>19747</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>15771</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>33084</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>48742</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>34108</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>52106</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>19960; 41108</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>11022; 27752</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>10895; 31774</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>11883; 29582</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>9532; 24202</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>19181; 47348</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>34683; 64110</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>23976; 48172</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>36113; 70613</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>18688</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>19374</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>36566</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>21686</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>15593</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>41158</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>40375</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>34967</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>77725</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12031; 28581</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11540; 28804</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>25948; 49642</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>13571; 32585</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9067; 24462</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>29501; 52668</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>29008; 53210</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>25176; 48040</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>61926; 95050</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>22008</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>19254</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>39839</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>18962</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>22662</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>47354</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>40970</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>41917</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>87192</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>14547; 32735</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>11483; 30566</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>16670; 61818</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>11462; 31106</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>14492; 33882</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>35921; 58408</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>30237; 57490</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>30139; 56151</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>52757; 109259</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>9402</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>11550</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>27597</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>12157</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>10278</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>33490</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>21559</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>21828</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>61087</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4182; 16859</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5564; 20685</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>19095; 38439</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>6013; 21153</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4658; 18239</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>26491; 41990</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>13014; 32510</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>13422; 32677</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>49244; 73940</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>3998</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>4715</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>27894</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>5173</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>10273</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>23320</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>9171</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>14988</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>51215</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1006; 9948</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1788; 10744</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>20818; 37418</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1911; 11376</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>5051; 18165</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>8189; 38063</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>4262; 16742</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>9002; 23920</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>24616; 69921</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>6489</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>16295</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>4186</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>5559</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>11851</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>10675</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>10702</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>28146</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2255; 16013</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1611; 10677</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>11431; 23324</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1007; 9555</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1257; 14872</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>7749; 16897</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>5380; 19895</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>5147; 20863</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>21656; 37365</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>556</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>107529</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>95006</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>203541</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>95576</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>87953</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>214947</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>203105</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>182959</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>418488</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>87160; 129163</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>76959; 115788</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>157265; 238211</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>76214; 118292</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>70912; 107083</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>176683; 247518</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>174013; 232053</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>157173; 211025</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>359613; 465817</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>